--- a/tpn/tools/xlsx2data/demo/item.xlsx
+++ b/tpn/tools/xlsx2data/demo/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Item" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>type[ui8][*]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc[desc][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,11 +90,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id[u32][!]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name[str][*]</t>
+    <t>desc[desc]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[u16][!][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type[ui8][*][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[str][*][C]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店1产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店1产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店2产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +191,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,11 +222,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,46 +510,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,13 +557,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,13 +571,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +585,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -536,13 +597,13 @@
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,13 +611,83 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,12 +736,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tpn/tools/xlsx2data/demo/item.xlsx
+++ b/tpn/tools/xlsx2data/demo/item.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="@Item" sheetId="1" r:id="rId1"/>
-    <sheet name="Item说明" sheetId="2" r:id="rId2"/>
+    <sheet name="ItemDesc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,130 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>id[u16][!][]</t>
+  </si>
+  <si>
+    <t>name[str][*][C]</t>
+  </si>
+  <si>
+    <t>type[ui8][*][]</t>
+  </si>
+  <si>
+    <t>desc[desc]</t>
+  </si>
   <si>
     <t>道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A系统产出道具</t>
   </si>
   <si>
     <t>道具2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B系统产出道具</t>
   </si>
   <si>
     <t>道具5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A系统产出道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B系统产出道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C系统产出道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品1</t>
+  </si>
+  <si>
+    <t>商店1产出</t>
+  </si>
+  <si>
+    <t>商品2</t>
+  </si>
+  <si>
+    <t>商品3</t>
+  </si>
+  <si>
+    <t>商店2产出</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>钻石</t>
   </si>
   <si>
     <t>道具类型说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc[desc]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[u16][!][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type[ui8][*][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name[str][*][C]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店1产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店1产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店2产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,25 +144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,44 +475,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +514,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,95 +528,95 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1003</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1005</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>2001</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2002</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>2003</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -702,17 +659,14 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,12 +690,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
